--- a/bbdd_robot/simulacion_datos_robot.xlsx
+++ b/bbdd_robot/simulacion_datos_robot.xlsx
@@ -836,7 +836,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1543,6 +1543,465 @@
       <c r="E26" t="inlineStr">
         <is>
           <t>programa_base_rojo</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>18/06/2025</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>13:02</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>E003</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>time.sleep() takes exactly one argument (2 given)</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>programa_base_verde</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>18/06/2025</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>13:03</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>E003</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Command VISION_PICK KO : An error occured while executing the last command : Goal has been aborted : Command has been aborted due to a collision or a motor not able to follow the given trajectory</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>programa_base_verde</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>18/06/2025</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>13:06</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>E004</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Command VISION_PICK KO : An error occured while executing the last command : clear_collision_detected() must be called before attempting a new move command</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>programa_base_rojo</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>18/06/2025</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>13:08</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>E001</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Command MOVE KO : An error occured while executing the last command : Goal has been aborted : Command has been aborted due to a collision or a motor not able to follow the given trajectory</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>programa_base_rojo</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>18/06/2025</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>13:09</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>E004</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Command VISION_PICK KO : An error occured while executing the last command : Goal has been aborted : Command has been aborted due to a collision or a motor not able to follow the given trajectory</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>programa_base_rojo</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>18/06/2025</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>13:10</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>E002</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Command MOVE KO : An error occured while executing the last command : Goal has been aborted : Command has been aborted due to a collision or a motor not able to follow the given trajectory</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>programa_base_verde</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>18/06/2025</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>13:10</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>E002</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Command MOVE KO : An error occured while executing the last command : Goal has been aborted : Command has been aborted due to a collision or a motor not able to follow the given trajectory</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>programa_base_verde</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>18/06/2025</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>13:10</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>E002</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Command MOVE KO : An error occured while executing the last command : clear_collision_detected() must be called before attempting a new move command</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>programa_base_verde</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>18/06/2025</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>13:11</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>E001</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Command MOVE KO : An error occured while executing the last command : Goal has been aborted : Command has been aborted due to a collision or a motor not able to follow the given trajectory</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>programa_base_rojo</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>18/06/2025</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>13:12</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>E001</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Command MOVE KO : An error occured while executing the last command : Goal has been aborted : Command has been aborted due to a collision or a motor not able to follow the given trajectory</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>programa_base_rojo</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>18/06/2025</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>13:41</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>E001</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Command CONTROL_CONVEYOR KO : An error occured while executing the last command : Unable to retrieve the conveyor corresponding to ConveyorID.NONE</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>programa_base_rojo</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>18/06/2025</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>13:41</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>E001</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Command CONTROL_CONVEYOR KO : An error occured while executing the last command : Unable to retrieve the conveyor corresponding to ConveyorID.NONE</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>programa_base_rojo</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>18/06/2025</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>13:41</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>E002</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Command CONTROL_CONVEYOR KO : An error occured while executing the last command : Unable to retrieve the conveyor corresponding to ConveyorID.NONE</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>programa_base_verde</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>18/06/2025</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>13:41</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>E002</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Command CONTROL_CONVEYOR KO : An error occured while executing the last command : Unable to retrieve the conveyor corresponding to ConveyorID.NONE</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>programa_base_verde</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>18/06/2025</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>13:41</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>E002</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Command CONTROL_CONVEYOR KO : An error occured while executing the last command : Unable to retrieve the conveyor corresponding to ConveyorID.NONE</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>programa_base_verde</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>18/06/2025</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>13:44</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>E004</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>No se pudo detectar ninguna pieza para agarrar.</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>programa_base_rojo</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>18/06/2025</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>13:45</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>E003</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>No se pudo detectar ninguna pieza para agarrar.</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>programa_base_verde</t>
         </is>
       </c>
     </row>
@@ -1557,7 +2016,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F117"/>
+  <dimension ref="A1:F153"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4845,6 +5304,1014 @@
         <v>0</v>
       </c>
     </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>18/06/2025</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>12:46</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>parar_robot</t>
+        </is>
+      </c>
+      <c r="D118" t="n">
+        <v>0</v>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>Parado</t>
+        </is>
+      </c>
+      <c r="F118" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>18/06/2025</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>12:46</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>stream_image</t>
+        </is>
+      </c>
+      <c r="D119" t="n">
+        <v>13</v>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>Éxito</t>
+        </is>
+      </c>
+      <c r="F119" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>18/06/2025</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>12:46</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>restart</t>
+        </is>
+      </c>
+      <c r="D120" t="n">
+        <v>5</v>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>Éxito</t>
+        </is>
+      </c>
+      <c r="F120" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>18/06/2025</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>12:46</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>stream_image</t>
+        </is>
+      </c>
+      <c r="D121" t="n">
+        <v>11</v>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>Éxito</t>
+        </is>
+      </c>
+      <c r="F121" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>18/06/2025</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>12:47</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>parar_robot</t>
+        </is>
+      </c>
+      <c r="D122" t="n">
+        <v>0</v>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>Parado</t>
+        </is>
+      </c>
+      <c r="F122" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>18/06/2025</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>12:47</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>restart</t>
+        </is>
+      </c>
+      <c r="D123" t="n">
+        <v>5</v>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>Éxito</t>
+        </is>
+      </c>
+      <c r="F123" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>18/06/2025</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>12:48</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>parar_robot</t>
+        </is>
+      </c>
+      <c r="D124" t="n">
+        <v>0</v>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>Parado</t>
+        </is>
+      </c>
+      <c r="F124" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>18/06/2025</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>12:48</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>restart</t>
+        </is>
+      </c>
+      <c r="D125" t="n">
+        <v>1</v>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>Éxito</t>
+        </is>
+      </c>
+      <c r="F125" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>18/06/2025</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>12:53</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>programa_base_verde</t>
+        </is>
+      </c>
+      <c r="D126" t="n">
+        <v>3</v>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>Éxito</t>
+        </is>
+      </c>
+      <c r="F126" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>18/06/2025</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>12:54</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>programa_base_verde</t>
+        </is>
+      </c>
+      <c r="D127" t="n">
+        <v>37</v>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>Éxito</t>
+        </is>
+      </c>
+      <c r="F127" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>18/06/2025</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>13:01</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>programa_base_rojo</t>
+        </is>
+      </c>
+      <c r="D128" t="n">
+        <v>54</v>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>Éxito</t>
+        </is>
+      </c>
+      <c r="F128" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>18/06/2025</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>13:02</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>programa_base_verde</t>
+        </is>
+      </c>
+      <c r="D129" t="n">
+        <v>28</v>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>Fallo</t>
+        </is>
+      </c>
+      <c r="F129" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>18/06/2025</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>13:03</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>programa_base_verde</t>
+        </is>
+      </c>
+      <c r="D130" t="n">
+        <v>39</v>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>Fallo</t>
+        </is>
+      </c>
+      <c r="F130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>18/06/2025</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>13:06</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>programa_base_rojo</t>
+        </is>
+      </c>
+      <c r="D131" t="n">
+        <v>41</v>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>Fallo</t>
+        </is>
+      </c>
+      <c r="F131" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>18/06/2025</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>13:08</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>programa_base_rojo</t>
+        </is>
+      </c>
+      <c r="D132" t="n">
+        <v>11</v>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>Fallo</t>
+        </is>
+      </c>
+      <c r="F132" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>18/06/2025</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>13:09</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>programa_base_rojo</t>
+        </is>
+      </c>
+      <c r="D133" t="n">
+        <v>41</v>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>Fallo</t>
+        </is>
+      </c>
+      <c r="F133" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>18/06/2025</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>13:10</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>programa_base_verde</t>
+        </is>
+      </c>
+      <c r="D134" t="n">
+        <v>12</v>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>Fallo</t>
+        </is>
+      </c>
+      <c r="F134" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>18/06/2025</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>13:10</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>programa_base_verde</t>
+        </is>
+      </c>
+      <c r="D135" t="n">
+        <v>11</v>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>Fallo</t>
+        </is>
+      </c>
+      <c r="F135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>18/06/2025</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>13:10</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>programa_base_verde</t>
+        </is>
+      </c>
+      <c r="D136" t="n">
+        <v>13</v>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>Fallo</t>
+        </is>
+      </c>
+      <c r="F136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>18/06/2025</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>13:11</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>programa_base_rojo</t>
+        </is>
+      </c>
+      <c r="D137" t="n">
+        <v>4</v>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>Fallo</t>
+        </is>
+      </c>
+      <c r="F137" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>18/06/2025</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>13:12</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>programa_base_rojo</t>
+        </is>
+      </c>
+      <c r="D138" t="n">
+        <v>39</v>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>Éxito</t>
+        </is>
+      </c>
+      <c r="F138" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>18/06/2025</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>13:12</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>programa_base_rojo</t>
+        </is>
+      </c>
+      <c r="D139" t="n">
+        <v>10</v>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>Fallo</t>
+        </is>
+      </c>
+      <c r="F139" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>18/06/2025</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>13:14</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>programa_base_rojo</t>
+        </is>
+      </c>
+      <c r="D140" t="n">
+        <v>55</v>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>Éxito</t>
+        </is>
+      </c>
+      <c r="F140" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>18/06/2025</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>13:39</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>parar_robot</t>
+        </is>
+      </c>
+      <c r="D141" t="n">
+        <v>0</v>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>Parado</t>
+        </is>
+      </c>
+      <c r="F141" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>18/06/2025</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>13:41</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>stream_image</t>
+        </is>
+      </c>
+      <c r="D142" t="n">
+        <v>6</v>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>Éxito</t>
+        </is>
+      </c>
+      <c r="F142" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>18/06/2025</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>13:41</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>parar_robot</t>
+        </is>
+      </c>
+      <c r="D143" t="n">
+        <v>0</v>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>Parado</t>
+        </is>
+      </c>
+      <c r="F143" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>18/06/2025</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>13:41</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>stream_image</t>
+        </is>
+      </c>
+      <c r="D144" t="n">
+        <v>4</v>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>Éxito</t>
+        </is>
+      </c>
+      <c r="F144" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>18/06/2025</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>13:41</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>programa_base_rojo</t>
+        </is>
+      </c>
+      <c r="D145" t="n">
+        <v>1</v>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>Fallo</t>
+        </is>
+      </c>
+      <c r="F145" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>18/06/2025</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>13:41</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>programa_base_verde</t>
+        </is>
+      </c>
+      <c r="D146" t="n">
+        <v>4</v>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>Fallo</t>
+        </is>
+      </c>
+      <c r="F146" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>18/06/2025</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>13:41</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>programa_base_verde</t>
+        </is>
+      </c>
+      <c r="D147" t="n">
+        <v>2</v>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>Fallo</t>
+        </is>
+      </c>
+      <c r="F147" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>18/06/2025</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>13:41</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>programa_base_verde</t>
+        </is>
+      </c>
+      <c r="D148" t="n">
+        <v>3</v>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>Fallo</t>
+        </is>
+      </c>
+      <c r="F148" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>18/06/2025</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>13:43</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>parar_robot</t>
+        </is>
+      </c>
+      <c r="D149" t="n">
+        <v>0</v>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>Parado</t>
+        </is>
+      </c>
+      <c r="F149" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>18/06/2025</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>13:44</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>restart</t>
+        </is>
+      </c>
+      <c r="D150" t="n">
+        <v>6</v>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>Éxito</t>
+        </is>
+      </c>
+      <c r="F150" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>18/06/2025</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>13:44</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>programa_base_rojo</t>
+        </is>
+      </c>
+      <c r="D151" t="n">
+        <v>30</v>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>Fallo</t>
+        </is>
+      </c>
+      <c r="F151" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>18/06/2025</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>13:45</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>programa_base_verde</t>
+        </is>
+      </c>
+      <c r="D152" t="n">
+        <v>30</v>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>Fallo</t>
+        </is>
+      </c>
+      <c r="F152" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>18/06/2025</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>13:46</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>programa_base_rojo</t>
+        </is>
+      </c>
+      <c r="D153" t="n">
+        <v>35</v>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>Éxito</t>
+        </is>
+      </c>
+      <c r="F153" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
